--- a/assets/cases.xlsx
+++ b/assets/cases.xlsx
@@ -1758,9 +1758,6 @@
     <t>DC</t>
   </si>
   <si>
-    <t>Washington, D.C.</t>
-  </si>
-  <si>
     <t>The first confirmed case of coronavirus in the District is the rector of Christ Church Georgetown. He is in his 50s and was present for three services last week attended by 550 people.</t>
   </si>
   <si>
@@ -2933,9 +2930,6 @@
     <t>8 more cases were reported on the Coronavirus page of WA official website. 5 cases are connected to LifeCare Center. and 3 are still under investigation.</t>
   </si>
   <si>
-    <t>Stanford University faculty member tests positive for COVID-19: A Stanford University faculty member who has  not been in the work environment since experiencing symptoms tested positive for the new coronavirus. according to university officials.</t>
-  </si>
-  <si>
     <t>A Santa Cruz County resident who recently traveled on the Grand Princess cruise ship is the county's first confirmed case of COVID-19. officials said Saturday.</t>
   </si>
   <si>
@@ -3213,6 +3207,12 @@
   </si>
   <si>
     <t>Colorado’s coronavirus tally: 184 people tested. 12 cases of COVID-19 identified</t>
+  </si>
+  <si>
+    <t>Washington. D.C.</t>
+  </si>
+  <si>
+    <t>Stanford University faculty member tests positive for COVID-19: A Stanford University faculty member who has not been in the work environment since experiencing symptoms tested positive for the new coronavirus. according to university officials.</t>
   </si>
 </sst>
 </file>
@@ -3342,13 +3342,13 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3668,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="E217" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3716,7 +3716,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>8</v>
@@ -3736,7 +3736,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>42</v>
@@ -3776,7 +3776,7 @@
         <v>61</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>36</v>
@@ -3856,7 +3856,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>22</v>
@@ -3876,7 +3876,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>66</v>
@@ -3896,7 +3896,7 @@
         <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>18</v>
@@ -3916,7 +3916,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>13</v>
@@ -3936,7 +3936,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>62</v>
@@ -3976,7 +3976,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>13</v>
@@ -3996,7 +3996,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>51</v>
@@ -4136,7 +4136,7 @@
         <v>90</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>97</v>
@@ -4216,7 +4216,7 @@
         <v>83</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>84</v>
@@ -4236,7 +4236,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>78</v>
@@ -4556,7 +4556,7 @@
         <v>69</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>111</v>
@@ -4576,7 +4576,7 @@
         <v>69</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F45" s="16" t="s">
         <v>111</v>
@@ -4596,7 +4596,7 @@
         <v>69</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>111</v>
@@ -4636,7 +4636,7 @@
         <v>6</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F48" s="16" t="s">
         <v>112</v>
@@ -4716,7 +4716,7 @@
         <v>25</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F52" s="16" t="s">
         <v>168</v>
@@ -4736,7 +4736,7 @@
         <v>83</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F53" s="16" t="s">
         <v>163</v>
@@ -4756,7 +4756,7 @@
         <v>90</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F54" s="16" t="s">
         <v>165</v>
@@ -4776,7 +4776,7 @@
         <v>162</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F55" s="16" t="s">
         <v>163</v>
@@ -4816,7 +4816,7 @@
         <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F57" s="16" t="s">
         <v>84</v>
@@ -4896,7 +4896,7 @@
         <v>69</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F61" s="16" t="s">
         <v>115</v>
@@ -4916,7 +4916,7 @@
         <v>147</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F62" s="16" t="s">
         <v>88</v>
@@ -4936,7 +4936,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F63" s="16" t="s">
         <v>211</v>
@@ -4956,7 +4956,7 @@
         <v>208</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F64" s="16" t="s">
         <v>209</v>
@@ -4976,7 +4976,7 @@
         <v>205</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F65" s="16" t="s">
         <v>206</v>
@@ -4996,7 +4996,7 @@
         <v>201</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F66" s="16" t="s">
         <v>202</v>
@@ -5016,7 +5016,7 @@
         <v>201</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F67" s="16" t="s">
         <v>202</v>
@@ -5036,7 +5036,7 @@
         <v>69</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>115</v>
@@ -5056,7 +5056,7 @@
         <v>69</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>115</v>
@@ -5076,7 +5076,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F70" s="16" t="s">
         <v>115</v>
@@ -5116,7 +5116,7 @@
         <v>119</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F72" s="16" t="s">
         <v>190</v>
@@ -5176,7 +5176,7 @@
         <v>69</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F75" s="16" t="s">
         <v>7</v>
@@ -5232,7 +5232,7 @@
         <v>69</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F78" s="16" t="s">
         <v>78</v>
@@ -5252,7 +5252,7 @@
         <v>69</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F79" s="16" t="s">
         <v>78</v>
@@ -5272,7 +5272,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F80" s="16" t="s">
         <v>78</v>
@@ -5292,7 +5292,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F81" s="16" t="s">
         <v>78</v>
@@ -5312,7 +5312,7 @@
         <v>69</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F82" s="16" t="s">
         <v>78</v>
@@ -5332,7 +5332,7 @@
         <v>69</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F83" s="16" t="s">
         <v>78</v>
@@ -5352,7 +5352,7 @@
         <v>231</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F84" s="16" t="s">
         <v>190</v>
@@ -5432,7 +5432,7 @@
         <v>131</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F88" s="16" t="s">
         <v>222</v>
@@ -5492,7 +5492,7 @@
         <v>215</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F91" s="16" t="s">
         <v>129</v>
@@ -5512,7 +5512,7 @@
         <v>56</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F92" s="16" t="s">
         <v>213</v>
@@ -5592,7 +5592,7 @@
         <v>253</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F96" s="16" t="s">
         <v>121</v>
@@ -5612,7 +5612,7 @@
         <v>253</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F97" s="16" t="s">
         <v>121</v>
@@ -5632,7 +5632,7 @@
         <v>253</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F98" s="16" t="s">
         <v>121</v>
@@ -5752,7 +5752,7 @@
         <v>69</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F104" s="16" t="s">
         <v>176</v>
@@ -5772,7 +5772,7 @@
         <v>69</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F105" s="16" t="s">
         <v>239</v>
@@ -5792,7 +5792,7 @@
         <v>69</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F106" s="16" t="s">
         <v>239</v>
@@ -5812,7 +5812,7 @@
         <v>69</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F107" s="16" t="s">
         <v>239</v>
@@ -5832,7 +5832,7 @@
         <v>69</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F108" s="16" t="s">
         <v>239</v>
@@ -5852,7 +5852,7 @@
         <v>69</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F109" s="16" t="s">
         <v>239</v>
@@ -5872,7 +5872,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F110" s="16" t="s">
         <v>239</v>
@@ -5892,7 +5892,7 @@
         <v>69</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F111" s="16" t="s">
         <v>239</v>
@@ -5912,7 +5912,7 @@
         <v>69</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F112" s="16" t="s">
         <v>239</v>
@@ -5968,7 +5968,7 @@
         <v>253</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F115" s="16" t="s">
         <v>271</v>
@@ -6068,7 +6068,7 @@
         <v>38</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F120" s="16" t="s">
         <v>266</v>
@@ -6088,7 +6088,7 @@
         <v>38</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F121" s="16" t="s">
         <v>266</v>
@@ -6108,7 +6108,7 @@
         <v>38</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F122" s="16" t="s">
         <v>266</v>
@@ -6128,7 +6128,7 @@
         <v>322</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F123" s="16" t="s">
         <v>323</v>
@@ -6148,7 +6148,7 @@
         <v>318</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F124" s="16" t="s">
         <v>319</v>
@@ -6188,7 +6188,7 @@
         <v>311</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F126" s="16" t="s">
         <v>312</v>
@@ -6208,7 +6208,7 @@
         <v>119</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F127" s="16" t="s">
         <v>121</v>
@@ -6228,7 +6228,7 @@
         <v>119</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F128" s="16" t="s">
         <v>121</v>
@@ -6308,7 +6308,7 @@
         <v>253</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F132" s="16" t="s">
         <v>121</v>
@@ -6328,7 +6328,7 @@
         <v>12</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F133" s="16" t="s">
         <v>54</v>
@@ -6348,7 +6348,7 @@
         <v>69</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F134" s="16" t="s">
         <v>290</v>
@@ -6368,7 +6368,7 @@
         <v>6</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F135" s="16" t="s">
         <v>290</v>
@@ -6388,7 +6388,7 @@
         <v>287</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F136" s="16" t="s">
         <v>88</v>
@@ -6408,7 +6408,7 @@
         <v>287</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F137" s="16" t="s">
         <v>88</v>
@@ -6428,7 +6428,7 @@
         <v>28</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F138" s="16" t="s">
         <v>366</v>
@@ -6488,7 +6488,7 @@
         <v>56</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F141" s="16" t="s">
         <v>358</v>
@@ -6508,7 +6508,7 @@
         <v>329</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F142" s="16" t="s">
         <v>356</v>
@@ -6548,7 +6548,7 @@
         <v>38</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F144" s="16" t="s">
         <v>129</v>
@@ -6568,7 +6568,7 @@
         <v>349</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F145" s="16" t="s">
         <v>350</v>
@@ -6588,7 +6588,7 @@
         <v>346</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F146" s="16" t="s">
         <v>347</v>
@@ -6608,7 +6608,7 @@
         <v>343</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F147" s="16" t="s">
         <v>344</v>
@@ -6668,7 +6668,7 @@
         <v>69</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F150" s="16" t="s">
         <v>7</v>
@@ -6708,7 +6708,7 @@
         <v>326</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F152" s="16" t="s">
         <v>327</v>
@@ -6728,7 +6728,7 @@
         <v>402</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F153" s="16" t="s">
         <v>327</v>
@@ -6748,7 +6748,7 @@
         <v>329</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F154" s="16" t="s">
         <v>8</v>
@@ -6768,7 +6768,7 @@
         <v>329</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F155" s="16" t="s">
         <v>399</v>
@@ -6828,7 +6828,7 @@
         <v>387</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F158" s="16" t="s">
         <v>388</v>
@@ -6888,7 +6888,7 @@
         <v>47</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F161" s="16" t="s">
         <v>48</v>
@@ -6908,7 +6908,7 @@
         <v>253</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F162" s="16" t="s">
         <v>121</v>
@@ -6928,7 +6928,7 @@
         <v>215</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F163" s="16" t="s">
         <v>88</v>
@@ -6948,7 +6948,7 @@
         <v>215</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F164" s="16" t="s">
         <v>88</v>
@@ -6968,7 +6968,7 @@
         <v>373</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F165" s="16" t="s">
         <v>374</v>
@@ -6988,7 +6988,7 @@
         <v>370</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F166" s="16" t="s">
         <v>371</v>
@@ -7008,7 +7008,7 @@
         <v>56</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F167" s="16" t="s">
         <v>368</v>
@@ -7088,7 +7088,7 @@
         <v>69</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F171" s="16" t="s">
         <v>79</v>
@@ -7108,7 +7108,7 @@
         <v>6</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F172" s="16" t="s">
         <v>79</v>
@@ -7148,7 +7148,7 @@
         <v>428</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F174" s="16" t="s">
         <v>429</v>
@@ -7168,7 +7168,7 @@
         <v>425</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F175" s="16" t="s">
         <v>340</v>
@@ -7248,7 +7248,7 @@
         <v>412</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F179" s="16" t="s">
         <v>413</v>
@@ -7308,7 +7308,7 @@
         <v>318</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F182" s="16" t="s">
         <v>404</v>
@@ -7328,7 +7328,7 @@
         <v>38</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F183" s="16" t="s">
         <v>266</v>
@@ -7348,7 +7348,7 @@
         <v>38</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F184" s="16" t="s">
         <v>266</v>
@@ -7368,7 +7368,7 @@
         <v>38</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F185" s="16" t="s">
         <v>266</v>
@@ -7388,7 +7388,7 @@
         <v>38</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F186" s="16" t="s">
         <v>266</v>
@@ -7468,7 +7468,7 @@
         <v>322</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F190" s="16" t="s">
         <v>463</v>
@@ -7508,7 +7508,7 @@
         <v>138</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F192" s="16" t="s">
         <v>171</v>
@@ -7528,7 +7528,7 @@
         <v>338</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F193" s="16" t="s">
         <v>350</v>
@@ -7548,7 +7548,7 @@
         <v>455</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F194" s="16" t="s">
         <v>350</v>
@@ -7568,7 +7568,7 @@
         <v>452</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F195" s="16" t="s">
         <v>453</v>
@@ -7588,7 +7588,7 @@
         <v>450</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F196" s="16" t="s">
         <v>448</v>
@@ -7608,7 +7608,7 @@
         <v>447</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F197" s="16" t="s">
         <v>448</v>
@@ -7628,7 +7628,7 @@
         <v>512</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F198" s="16" t="s">
         <v>513</v>
@@ -7648,7 +7648,7 @@
         <v>343</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F199" s="16" t="s">
         <v>331</v>
@@ -7688,7 +7688,7 @@
         <v>287</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F201" s="16" t="s">
         <v>22</v>
@@ -7748,7 +7748,7 @@
         <v>498</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F204" s="16" t="s">
         <v>499</v>
@@ -7768,7 +7768,7 @@
         <v>94</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F205" s="16" t="s">
         <v>496</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="207" spans="1:6" ht="75">
       <c r="A207" s="17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B207" s="12">
         <v>43897</v>
@@ -7808,7 +7808,7 @@
         <v>69</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F207" s="16" t="s">
         <v>78</v>
@@ -7828,7 +7828,7 @@
         <v>491</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F208" s="16" t="s">
         <v>489</v>
@@ -7868,7 +7868,7 @@
         <v>447</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F210" s="16" t="s">
         <v>486</v>
@@ -7908,7 +7908,7 @@
         <v>119</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F212" s="16" t="s">
         <v>482</v>
@@ -7928,7 +7928,7 @@
         <v>119</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F213" s="16" t="s">
         <v>121</v>
@@ -7948,7 +7948,7 @@
         <v>541</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F214" s="16" t="s">
         <v>542</v>
@@ -7968,7 +7968,7 @@
         <v>305</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F215" s="16" t="s">
         <v>539</v>
@@ -7988,7 +7988,7 @@
         <v>253</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F216" s="16" t="s">
         <v>537</v>
@@ -8008,7 +8008,7 @@
         <v>535</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F217" s="16" t="s">
         <v>84</v>
@@ -8048,7 +8048,7 @@
         <v>346</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F219" s="16" t="s">
         <v>530</v>
@@ -8068,7 +8068,7 @@
         <v>83</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F220" s="16" t="s">
         <v>84</v>
@@ -8088,7 +8088,7 @@
         <v>527</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F221" s="16" t="s">
         <v>88</v>
@@ -8108,7 +8108,7 @@
         <v>69</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F222" s="16" t="s">
         <v>211</v>
@@ -8128,7 +8128,7 @@
         <v>6</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F223" s="16" t="s">
         <v>211</v>
@@ -8168,7 +8168,7 @@
         <v>38</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>962</v>
+        <v>1055</v>
       </c>
       <c r="F225" s="16" t="s">
         <v>515</v>
@@ -8188,7 +8188,7 @@
         <v>519</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F226" s="16" t="s">
         <v>129</v>
@@ -8208,7 +8208,7 @@
         <v>38</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F227" s="16" t="s">
         <v>517</v>
@@ -8228,7 +8228,7 @@
         <v>287</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F228" s="16" t="s">
         <v>515</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="229" spans="1:6" ht="56.25">
       <c r="A229" s="17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B229" s="12">
         <v>43897</v>
@@ -8248,15 +8248,15 @@
         <v>56</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F229" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="37.5">
       <c r="A230" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B230" s="12">
         <v>43897</v>
@@ -8265,10 +8265,10 @@
         <v>5</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F230" s="16" t="s">
         <v>260</v>
@@ -8276,7 +8276,7 @@
     </row>
     <row r="231" spans="1:6" ht="18.75">
       <c r="A231" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B231" s="12">
         <v>43897</v>
@@ -8285,10 +8285,10 @@
         <v>46</v>
       </c>
       <c r="D231" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E231" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>578</v>
       </c>
       <c r="F231" s="16" t="s">
         <v>206</v>
@@ -8304,11 +8304,11 @@
       <c r="C232" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D232" s="5" t="s">
+      <c r="D232" s="14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E232" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>575</v>
       </c>
       <c r="F232" s="16" t="s">
         <v>8</v>
@@ -8328,7 +8328,7 @@
         <v>38</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F233" s="16" t="s">
         <v>266</v>
@@ -8348,7 +8348,7 @@
         <v>343</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F234" s="16" t="s">
         <v>364</v>
@@ -8368,7 +8368,7 @@
         <v>253</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F235" s="16" t="s">
         <v>562</v>
@@ -8388,7 +8388,7 @@
         <v>567</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F236" s="16" t="s">
         <v>568</v>
@@ -8428,7 +8428,7 @@
         <v>561</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F238" s="16" t="s">
         <v>562</v>
@@ -8468,7 +8468,7 @@
         <v>553</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F240" s="16" t="s">
         <v>554</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="244" spans="1:6" ht="37.5">
       <c r="A244" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B244" s="12">
         <v>43897</v>
@@ -8548,7 +8548,7 @@
         <v>201</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F244" s="16" t="s">
         <v>202</v>
@@ -8556,7 +8556,7 @@
     </row>
     <row r="245" spans="1:6" ht="37.5">
       <c r="A245" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B245" s="12">
         <v>43897</v>
@@ -8568,15 +8568,15 @@
         <v>178</v>
       </c>
       <c r="E245" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F245" s="16" t="s">
         <v>614</v>
-      </c>
-      <c r="F245" s="16" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="37.5">
       <c r="A246" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B246" s="12">
         <v>43897</v>
@@ -8585,36 +8585,36 @@
         <v>15</v>
       </c>
       <c r="D246" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E246" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="E246" s="4" t="s">
+      <c r="F246" s="16" t="s">
         <v>611</v>
-      </c>
-      <c r="F246" s="16" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="37.5">
       <c r="A247" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B247" s="12">
         <v>43897</v>
       </c>
       <c r="C247" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D247" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="D247" s="5" t="s">
-        <v>608</v>
-      </c>
       <c r="E247" s="4" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F247" s="5"/>
     </row>
     <row r="248" spans="1:6" ht="56.25">
       <c r="A248" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B248" s="12">
         <v>43897</v>
@@ -8626,7 +8626,7 @@
         <v>452</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F248" s="16" t="s">
         <v>79</v>
@@ -8634,7 +8634,7 @@
     </row>
     <row r="249" spans="1:6" ht="37.5">
       <c r="A249" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B249" s="12">
         <v>43897</v>
@@ -8646,15 +8646,15 @@
         <v>162</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F249" s="16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="37.5">
       <c r="A250" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B250" s="12">
         <v>43897</v>
@@ -8663,18 +8663,18 @@
         <v>161</v>
       </c>
       <c r="D250" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="F250" s="16" t="s">
         <v>601</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="F250" s="16" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="56.25">
       <c r="A251" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B251" s="12">
         <v>43897</v>
@@ -8683,18 +8683,18 @@
         <v>200</v>
       </c>
       <c r="D251" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="F251" s="16" t="s">
         <v>597</v>
-      </c>
-      <c r="E251" s="4" t="s">
-        <v>978</v>
-      </c>
-      <c r="F251" s="16" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="75">
       <c r="A252" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B252" s="12">
         <v>43898</v>
@@ -8703,10 +8703,10 @@
         <v>15</v>
       </c>
       <c r="D252" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="E252" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="E252" s="4" t="s">
-        <v>594</v>
       </c>
       <c r="F252" s="16" t="s">
         <v>213</v>
@@ -8714,7 +8714,7 @@
     </row>
     <row r="253" spans="1:6" ht="75">
       <c r="A253" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B253" s="12">
         <v>43898</v>
@@ -8723,18 +8723,18 @@
         <v>573</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>574</v>
+        <v>1054</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="56.25">
       <c r="A254" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B254" s="12">
         <v>43898</v>
@@ -8746,15 +8746,15 @@
         <v>561</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F254" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="37.5">
       <c r="A255" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B255" s="12">
         <v>43898</v>
@@ -8766,7 +8766,7 @@
         <v>253</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F255" s="16" t="s">
         <v>374</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="256" spans="1:6" ht="56.25">
       <c r="A256" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B256" s="12">
         <v>43898</v>
@@ -8783,10 +8783,10 @@
         <v>118</v>
       </c>
       <c r="D256" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E256" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>587</v>
       </c>
       <c r="F256" s="16" t="s">
         <v>374</v>
@@ -8794,7 +8794,7 @@
     </row>
     <row r="257" spans="1:6" ht="37.5">
       <c r="A257" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B257" s="12">
         <v>43898</v>
@@ -8806,7 +8806,7 @@
         <v>360</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F257" s="16" t="s">
         <v>374</v>
@@ -8814,7 +8814,7 @@
     </row>
     <row r="258" spans="1:6" ht="56.25">
       <c r="A258" s="17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B258" s="12">
         <v>43898</v>
@@ -8826,7 +8826,7 @@
         <v>322</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F258" s="16" t="s">
         <v>331</v>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="259" spans="1:6" ht="37.5">
       <c r="A259" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B259" s="12">
         <v>43898</v>
@@ -8843,30 +8843,30 @@
         <v>299</v>
       </c>
       <c r="D259" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="F259" s="16" t="s">
         <v>646</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="F259" s="16" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="112.5">
       <c r="A260" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B260" s="12">
         <v>43898</v>
       </c>
       <c r="C260" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="D260" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="D260" s="5" t="s">
-        <v>644</v>
-      </c>
       <c r="E260" s="4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F260" s="16" t="s">
         <v>404</v>
@@ -8874,7 +8874,7 @@
     </row>
     <row r="261" spans="1:6" ht="75">
       <c r="A261" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B261" s="12">
         <v>43898</v>
@@ -8883,18 +8883,18 @@
         <v>299</v>
       </c>
       <c r="D261" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="F261" s="16" t="s">
         <v>640</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>985</v>
-      </c>
-      <c r="F261" s="16" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="131.25">
       <c r="A262" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B262" s="12">
         <v>43898</v>
@@ -8903,10 +8903,10 @@
         <v>390</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F262" s="16" t="s">
         <v>393</v>
@@ -8914,7 +8914,7 @@
     </row>
     <row r="263" spans="1:6" ht="18.75">
       <c r="A263" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B263" s="12">
         <v>43898</v>
@@ -8926,15 +8926,15 @@
         <v>318</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F263" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="18.75">
       <c r="A264" s="17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B264" s="12">
         <v>43898</v>
@@ -8943,18 +8943,18 @@
         <v>317</v>
       </c>
       <c r="D264" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F264" s="16" t="s">
         <v>634</v>
-      </c>
-      <c r="E264" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="F264" s="16" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="18.75">
       <c r="A265" s="17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B265" s="12">
         <v>43898</v>
@@ -8966,15 +8966,15 @@
         <v>83</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F265" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="18.75">
       <c r="A266" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B266" s="12">
         <v>43898</v>
@@ -8983,18 +8983,18 @@
         <v>82</v>
       </c>
       <c r="D266" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E266" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="E266" s="4" t="s">
-        <v>630</v>
-      </c>
       <c r="F266" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="18.75">
       <c r="A267" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B267" s="12">
         <v>43898</v>
@@ -9006,15 +9006,15 @@
         <v>338</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F267" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="18.75">
       <c r="A268" s="17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B268" s="12">
         <v>43898</v>
@@ -9026,15 +9026,15 @@
         <v>391</v>
       </c>
       <c r="E268" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="F268" s="16" t="s">
         <v>624</v>
-      </c>
-      <c r="F268" s="16" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="56.25">
       <c r="A269" s="17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B269" s="12">
         <v>43898</v>
@@ -9046,7 +9046,7 @@
         <v>12</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F269" s="16" t="s">
         <v>13</v>
@@ -9054,7 +9054,7 @@
     </row>
     <row r="270" spans="1:6" ht="56.25">
       <c r="A270" s="17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B270" s="12">
         <v>43898</v>
@@ -9066,7 +9066,7 @@
         <v>69</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F270" s="16" t="s">
         <v>71</v>
@@ -9074,7 +9074,7 @@
     </row>
     <row r="271" spans="1:6" ht="37.5">
       <c r="A271" s="17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B271" s="12">
         <v>43898</v>
@@ -9086,15 +9086,15 @@
         <v>47</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F271" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="56.25">
       <c r="A272" s="17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B272" s="12">
         <v>43898</v>
@@ -9106,15 +9106,15 @@
         <v>346</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F272" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="37.5">
       <c r="A273" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B273" s="12">
         <v>43898</v>
@@ -9126,15 +9126,15 @@
         <v>205</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F273" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="37.5">
       <c r="A274" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B274" s="12">
         <v>43898</v>
@@ -9143,18 +9143,18 @@
         <v>46</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F274" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="18.75">
       <c r="A275" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B275" s="12">
         <v>43898</v>
@@ -9166,7 +9166,7 @@
         <v>38</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F275" s="16" t="s">
         <v>266</v>
@@ -9174,7 +9174,7 @@
     </row>
     <row r="276" spans="1:6" ht="18.75">
       <c r="A276" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B276" s="12">
         <v>43898</v>
@@ -9186,15 +9186,15 @@
         <v>305</v>
       </c>
       <c r="E276" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="F276" s="16" t="s">
         <v>668</v>
-      </c>
-      <c r="F276" s="16" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="56.25">
       <c r="A277" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B277" s="12">
         <v>43898</v>
@@ -9206,7 +9206,7 @@
         <v>215</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F277" s="16" t="s">
         <v>88</v>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="278" spans="1:6" ht="56.25">
       <c r="A278" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B278" s="12">
         <v>43898</v>
@@ -9226,7 +9226,7 @@
         <v>215</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F278" s="16" t="s">
         <v>88</v>
@@ -9234,7 +9234,7 @@
     </row>
     <row r="279" spans="1:6" ht="56.25">
       <c r="A279" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B279" s="12">
         <v>43898</v>
@@ -9246,15 +9246,15 @@
         <v>343</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F279" s="16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="56.25">
       <c r="A280" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B280" s="12">
         <v>43898</v>
@@ -9266,7 +9266,7 @@
         <v>215</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F280" s="16" t="s">
         <v>88</v>
@@ -9274,7 +9274,7 @@
     </row>
     <row r="281" spans="1:6" ht="56.25">
       <c r="A281" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B281" s="12">
         <v>43898</v>
@@ -9286,7 +9286,7 @@
         <v>215</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F281" s="16" t="s">
         <v>88</v>
@@ -9294,7 +9294,7 @@
     </row>
     <row r="282" spans="1:6" ht="37.5">
       <c r="A282" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B282" s="12">
         <v>43898</v>
@@ -9306,7 +9306,7 @@
         <v>215</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F282" s="16" t="s">
         <v>88</v>
@@ -9314,7 +9314,7 @@
     </row>
     <row r="283" spans="1:6" ht="18.75">
       <c r="A283" s="17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B283" s="12">
         <v>43898</v>
@@ -9326,7 +9326,7 @@
         <v>6</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F283" s="16" t="s">
         <v>211</v>
@@ -9334,7 +9334,7 @@
     </row>
     <row r="284" spans="1:6" ht="56.25">
       <c r="A284" s="17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B284" s="12">
         <v>43898</v>
@@ -9343,18 +9343,18 @@
         <v>342</v>
       </c>
       <c r="D284" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="F284" s="16" t="s">
         <v>655</v>
-      </c>
-      <c r="E284" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="F284" s="16" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="56.25">
       <c r="A285" s="17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B285" s="12">
         <v>43898</v>
@@ -9366,7 +9366,7 @@
         <v>443</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F285" s="16" t="s">
         <v>472</v>
@@ -9374,7 +9374,7 @@
     </row>
     <row r="286" spans="1:6" ht="56.25">
       <c r="A286" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B286" s="12">
         <v>43898</v>
@@ -9386,7 +9386,7 @@
         <v>443</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F286" s="16" t="s">
         <v>472</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="287" spans="1:6" ht="56.25">
       <c r="A287" s="17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B287" s="12">
         <v>43898</v>
@@ -9406,15 +9406,15 @@
         <v>343</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F287" s="16" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="18.75">
       <c r="A288" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B288" s="12">
         <v>43898</v>
@@ -9426,7 +9426,7 @@
         <v>452</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F288" s="16" t="s">
         <v>211</v>
@@ -9434,7 +9434,7 @@
     </row>
     <row r="289" spans="1:6" ht="56.25">
       <c r="A289" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B289" s="12">
         <v>43898</v>
@@ -9446,7 +9446,7 @@
         <v>443</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F289" s="16" t="s">
         <v>472</v>
@@ -9454,7 +9454,7 @@
     </row>
     <row r="290" spans="1:6" ht="56.25">
       <c r="A290" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B290" s="12">
         <v>43898</v>
@@ -9463,10 +9463,10 @@
         <v>468</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F290" s="16" t="s">
         <v>472</v>
@@ -9474,7 +9474,7 @@
     </row>
     <row r="291" spans="1:6" ht="56.25">
       <c r="A291" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B291" s="12">
         <v>43898</v>
@@ -9483,18 +9483,18 @@
         <v>427</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F291" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="56.25">
       <c r="A292" s="17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B292" s="12">
         <v>43898</v>
@@ -9506,15 +9506,15 @@
         <v>428</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F292" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="56.25">
       <c r="A293" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B293" s="12">
         <v>43898</v>
@@ -9526,15 +9526,15 @@
         <v>440</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F293" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="18.75">
       <c r="A294" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B294" s="12">
         <v>43898</v>
@@ -9546,15 +9546,15 @@
         <v>64</v>
       </c>
       <c r="E294" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F294" s="16" t="s">
         <v>694</v>
-      </c>
-      <c r="F294" s="16" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="37.5">
       <c r="A295" s="17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B295" s="12">
         <v>43898</v>
@@ -9566,7 +9566,7 @@
         <v>450</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F295" s="16" t="s">
         <v>354</v>
@@ -9574,7 +9574,7 @@
     </row>
     <row r="296" spans="1:6" ht="56.25">
       <c r="A296" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B296" s="12">
         <v>43898</v>
@@ -9586,35 +9586,35 @@
         <v>373</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F296" s="16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="75">
       <c r="A297" s="17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B297" s="12">
         <v>43898</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D297" s="5" t="s">
         <v>567</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F297" s="16" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="37.5">
       <c r="A298" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B298" s="12">
         <v>43898</v>
@@ -9626,15 +9626,15 @@
         <v>47</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F298" s="16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="75">
       <c r="A299" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B299" s="12">
         <v>43898</v>
@@ -9643,18 +9643,18 @@
         <v>431</v>
       </c>
       <c r="D299" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F299" s="16" t="s">
         <v>682</v>
-      </c>
-      <c r="E299" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F299" s="16" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="56.25">
       <c r="A300" s="17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B300" s="12">
         <v>43898</v>
@@ -9666,15 +9666,15 @@
         <v>338</v>
       </c>
       <c r="E300" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="F300" s="16" t="s">
         <v>679</v>
-      </c>
-      <c r="F300" s="16" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="56.25">
       <c r="A301" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B301" s="12">
         <v>43898</v>
@@ -9686,7 +9686,7 @@
         <v>329</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F301" s="16" t="s">
         <v>331</v>
@@ -9694,7 +9694,7 @@
     </row>
     <row r="302" spans="1:6" ht="93.75">
       <c r="A302" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B302" s="12">
         <v>43898</v>
@@ -9703,10 +9703,10 @@
         <v>15</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F302" s="16" t="s">
         <v>290</v>
@@ -9714,7 +9714,7 @@
     </row>
     <row r="303" spans="1:6" ht="93.75">
       <c r="A303" s="17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B303" s="12">
         <v>43898</v>
@@ -9723,18 +9723,18 @@
         <v>459</v>
       </c>
       <c r="D303" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F303" s="16" t="s">
         <v>735</v>
-      </c>
-      <c r="E303" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F303" s="16" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="56.25">
       <c r="A304" s="17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B304" s="12">
         <v>43898</v>
@@ -9746,15 +9746,15 @@
         <v>201</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F304" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="37.5">
       <c r="A305" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B305" s="12">
         <v>43898</v>
@@ -9763,18 +9763,18 @@
         <v>200</v>
       </c>
       <c r="D305" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="E305" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="E305" s="4" t="s">
-        <v>732</v>
-      </c>
       <c r="F305" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="56.25">
       <c r="A306" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B306" s="12">
         <v>43898</v>
@@ -9786,15 +9786,15 @@
         <v>491</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F306" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="56.25">
       <c r="A307" s="17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B307" s="12">
         <v>43898</v>
@@ -9803,10 +9803,10 @@
         <v>390</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F307" s="16" t="s">
         <v>393</v>
@@ -9814,7 +9814,7 @@
     </row>
     <row r="308" spans="1:6" ht="37.5">
       <c r="A308" s="17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B308" s="12">
         <v>43898</v>
@@ -9826,7 +9826,7 @@
         <v>208</v>
       </c>
       <c r="E308" s="4" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F308" s="16" t="s">
         <v>263</v>
@@ -9834,7 +9834,7 @@
     </row>
     <row r="309" spans="1:6" ht="18.75">
       <c r="A309" s="17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B309" s="12">
         <v>43898</v>
@@ -9846,7 +9846,7 @@
         <v>119</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F309" s="16" t="s">
         <v>7</v>
@@ -9854,7 +9854,7 @@
     </row>
     <row r="310" spans="1:6" ht="18.75">
       <c r="A310" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B310" s="12">
         <v>43898</v>
@@ -9866,15 +9866,15 @@
         <v>360</v>
       </c>
       <c r="E310" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="F310" s="16" t="s">
         <v>722</v>
-      </c>
-      <c r="F310" s="16" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="112.5">
       <c r="A311" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B311" s="12">
         <v>43898</v>
@@ -9883,18 +9883,18 @@
         <v>390</v>
       </c>
       <c r="D311" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F311" s="16" t="s">
         <v>719</v>
-      </c>
-      <c r="E311" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F311" s="16" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="93.75">
       <c r="A312" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B312" s="12">
         <v>43898</v>
@@ -9903,18 +9903,18 @@
         <v>560</v>
       </c>
       <c r="D312" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F312" s="16" t="s">
         <v>716</v>
-      </c>
-      <c r="E312" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F312" s="16" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="18.75">
       <c r="A313" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B313" s="12">
         <v>43898</v>
@@ -9926,7 +9926,7 @@
         <v>205</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F313" s="16" t="s">
         <v>347</v>
@@ -9934,7 +9934,7 @@
     </row>
     <row r="314" spans="1:6" ht="56.25">
       <c r="A314" s="17" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B314" s="12">
         <v>43898</v>
@@ -9946,7 +9946,7 @@
         <v>443</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F314" s="16" t="s">
         <v>472</v>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="315" spans="1:6" ht="37.5">
       <c r="A315" s="17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B315" s="12">
         <v>43898</v>
@@ -9963,10 +9963,10 @@
         <v>5</v>
       </c>
       <c r="D315" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E315" s="4" t="s">
         <v>710</v>
-      </c>
-      <c r="E315" s="4" t="s">
-        <v>711</v>
       </c>
       <c r="F315" s="16" t="s">
         <v>211</v>
@@ -9974,7 +9974,7 @@
     </row>
     <row r="316" spans="1:6" ht="56.25">
       <c r="A316" s="17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B316" s="12">
         <v>43899</v>
@@ -9986,7 +9986,7 @@
         <v>119</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F316" s="16" t="s">
         <v>121</v>
@@ -9994,7 +9994,7 @@
     </row>
     <row r="317" spans="1:6" ht="37.5">
       <c r="A317" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B317" s="12">
         <v>43899</v>
@@ -10006,7 +10006,7 @@
         <v>360</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F317" s="16" t="s">
         <v>121</v>
@@ -10014,7 +10014,7 @@
     </row>
     <row r="318" spans="1:6" ht="18.75">
       <c r="A318" s="17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B318" s="12">
         <v>43899</v>
@@ -10026,7 +10026,7 @@
         <v>253</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F318" s="16" t="s">
         <v>374</v>
@@ -10034,7 +10034,7 @@
     </row>
     <row r="319" spans="1:6" ht="18.75">
       <c r="A319" s="17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B319" s="12">
         <v>43899</v>
@@ -10046,7 +10046,7 @@
         <v>119</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F319" s="16" t="s">
         <v>374</v>
@@ -10054,7 +10054,7 @@
     </row>
     <row r="320" spans="1:6" ht="18.75">
       <c r="A320" s="17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B320" s="12">
         <v>43899</v>
@@ -10066,7 +10066,7 @@
         <v>360</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F320" s="16" t="s">
         <v>374</v>
@@ -10074,7 +10074,7 @@
     </row>
     <row r="321" spans="1:6" ht="18.75">
       <c r="A321" s="17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B321" s="12">
         <v>43899</v>
@@ -10086,7 +10086,7 @@
         <v>504</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F321" s="16" t="s">
         <v>374</v>
@@ -10094,7 +10094,7 @@
     </row>
     <row r="322" spans="1:6" ht="56.25">
       <c r="A322" s="17" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B322" s="12">
         <v>43899</v>
@@ -10106,7 +10106,7 @@
         <v>343</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F322" s="16" t="s">
         <v>445</v>
@@ -10114,7 +10114,7 @@
     </row>
     <row r="323" spans="1:6" ht="56.25">
       <c r="A323" s="17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B323" s="12">
         <v>43899</v>
@@ -10123,18 +10123,18 @@
         <v>299</v>
       </c>
       <c r="D323" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="E323" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F323" s="16" t="s">
         <v>761</v>
-      </c>
-      <c r="E323" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F323" s="16" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="112.5">
       <c r="A324" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B324" s="12">
         <v>43899</v>
@@ -10143,18 +10143,18 @@
         <v>321</v>
       </c>
       <c r="D324" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F324" s="16" t="s">
         <v>758</v>
-      </c>
-      <c r="E324" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F324" s="16" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="37.5">
       <c r="A325" s="17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B325" s="12">
         <v>43899</v>
@@ -10163,18 +10163,18 @@
         <v>337</v>
       </c>
       <c r="D325" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F325" s="16" t="s">
         <v>755</v>
-      </c>
-      <c r="E325" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F325" s="16" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="37.5">
       <c r="A326" s="17" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B326" s="12">
         <v>43899</v>
@@ -10186,35 +10186,35 @@
         <v>287</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F326" s="16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="37.5">
       <c r="A327" s="17" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B327" s="12">
         <v>43899</v>
       </c>
       <c r="C327" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="D327" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="D327" s="5" t="s">
+      <c r="E327" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F327" s="16" t="s">
         <v>750</v>
-      </c>
-      <c r="E327" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F327" s="16" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="37.5">
       <c r="A328" s="17" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B328" s="12">
         <v>43899</v>
@@ -10223,10 +10223,10 @@
         <v>317</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F328" s="16" t="s">
         <v>290</v>
@@ -10234,27 +10234,27 @@
     </row>
     <row r="329" spans="1:6" ht="75">
       <c r="A329" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B329" s="12">
         <v>43899</v>
       </c>
       <c r="C329" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D329" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="D329" s="5" t="s">
+      <c r="E329" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="E329" s="4" t="s">
+      <c r="F329" s="16" t="s">
         <v>744</v>
-      </c>
-      <c r="F329" s="16" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="18.75">
       <c r="A330" s="17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B330" s="12">
         <v>43899</v>
@@ -10266,7 +10266,7 @@
         <v>150</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F330" s="16" t="s">
         <v>51</v>
@@ -10274,7 +10274,7 @@
     </row>
     <row r="331" spans="1:6" ht="37.5">
       <c r="A331" s="17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B331" s="12">
         <v>43899</v>
@@ -10286,7 +10286,7 @@
         <v>56</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F331" s="16" t="s">
         <v>368</v>
@@ -10294,7 +10294,7 @@
     </row>
     <row r="332" spans="1:6" ht="75">
       <c r="A332" s="17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B332" s="12">
         <v>43899</v>
@@ -10306,7 +10306,7 @@
         <v>56</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F332" s="16" t="s">
         <v>368</v>
@@ -10314,7 +10314,7 @@
     </row>
     <row r="333" spans="1:6" ht="56.25">
       <c r="A333" s="17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B333" s="12">
         <v>43899</v>
@@ -10323,10 +10323,10 @@
         <v>15</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F333" s="16" t="s">
         <v>515</v>
@@ -10334,7 +10334,7 @@
     </row>
     <row r="334" spans="1:6" ht="75">
       <c r="A334" s="17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B334" s="12">
         <v>43899</v>
@@ -10346,7 +10346,7 @@
         <v>69</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F334" s="16" t="s">
         <v>240</v>
@@ -10354,7 +10354,7 @@
     </row>
     <row r="335" spans="1:6" ht="37.5">
       <c r="A335" s="17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B335" s="12">
         <v>43899</v>
@@ -10363,18 +10363,18 @@
         <v>325</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F335" s="16" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="37.5">
       <c r="A336" s="17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B336" s="12">
         <v>43899</v>
@@ -10386,15 +10386,15 @@
         <v>343</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F336" s="16" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="37.5">
       <c r="A337" s="17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B337" s="12">
         <v>43899</v>
@@ -10406,15 +10406,15 @@
         <v>318</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F337" s="16" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="37.5">
       <c r="A338" s="17" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B338" s="12">
         <v>43899</v>
@@ -10423,18 +10423,18 @@
         <v>317</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F338" s="16" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="37.5">
       <c r="A339" s="17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B339" s="12">
         <v>43899</v>
@@ -10443,18 +10443,18 @@
         <v>317</v>
       </c>
       <c r="D339" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F339" s="16" t="s">
         <v>782</v>
-      </c>
-      <c r="E339" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F339" s="16" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="37.5">
       <c r="A340" s="17" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B340" s="12">
         <v>43899</v>
@@ -10463,18 +10463,18 @@
         <v>317</v>
       </c>
       <c r="D340" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F340" s="16" t="s">
         <v>782</v>
-      </c>
-      <c r="E340" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F340" s="16" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="93.75">
       <c r="A341" s="17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B341" s="12">
         <v>43899</v>
@@ -10486,7 +10486,7 @@
         <v>12</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F341" s="16" t="s">
         <v>13</v>
@@ -10494,7 +10494,7 @@
     </row>
     <row r="342" spans="1:6" ht="18.75">
       <c r="A342" s="17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B342" s="12">
         <v>43899</v>
@@ -10506,7 +10506,7 @@
         <v>519</v>
       </c>
       <c r="E342" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F342" s="16" t="s">
         <v>42</v>
@@ -10514,7 +10514,7 @@
     </row>
     <row r="343" spans="1:6" ht="18.75">
       <c r="A343" s="17" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B343" s="12">
         <v>43899</v>
@@ -10523,10 +10523,10 @@
         <v>46</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F343" s="16" t="s">
         <v>347</v>
@@ -10534,7 +10534,7 @@
     </row>
     <row r="344" spans="1:6" ht="18.75">
       <c r="A344" s="17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B344" s="12">
         <v>43899</v>
@@ -10546,7 +10546,7 @@
         <v>346</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F344" s="16" t="s">
         <v>347</v>
@@ -10554,27 +10554,27 @@
     </row>
     <row r="345" spans="1:6" ht="56.25">
       <c r="A345" s="17" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B345" s="12">
         <v>43899</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D345" s="5" t="s">
         <v>567</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F345" s="16" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="75">
       <c r="A346" s="17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B346" s="12">
         <v>43899</v>
@@ -10586,15 +10586,15 @@
         <v>425</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F346" s="16" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="37.5">
       <c r="A347" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B347" s="12">
         <v>43899</v>
@@ -10606,7 +10606,7 @@
         <v>6</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F347" s="16" t="s">
         <v>211</v>
@@ -10614,7 +10614,7 @@
     </row>
     <row r="348" spans="1:6" ht="37.5">
       <c r="A348" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B348" s="12">
         <v>43899</v>
@@ -10623,18 +10623,18 @@
         <v>15</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F348" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="18.75">
       <c r="A349" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B349" s="12">
         <v>43899</v>
@@ -10646,15 +10646,15 @@
         <v>119</v>
       </c>
       <c r="E349" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="F349" s="16" t="s">
         <v>816</v>
-      </c>
-      <c r="F349" s="16" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="93.75">
       <c r="A350" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B350" s="12">
         <v>43899</v>
@@ -10663,10 +10663,10 @@
         <v>60</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F350" s="16" t="s">
         <v>384</v>
@@ -10674,7 +10674,7 @@
     </row>
     <row r="351" spans="1:6" ht="37.5">
       <c r="A351" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B351" s="12">
         <v>43899</v>
@@ -10686,15 +10686,15 @@
         <v>428</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F351" s="16" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="37.5">
       <c r="A352" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B352" s="12">
         <v>43899</v>
@@ -10703,18 +10703,18 @@
         <v>427</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F352" s="16" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="56.25">
       <c r="A353" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B353" s="12">
         <v>43899</v>
@@ -10726,15 +10726,15 @@
         <v>452</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F353" s="16" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="56.25">
       <c r="A354" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B354" s="12">
         <v>43899</v>
@@ -10746,15 +10746,15 @@
         <v>231</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F354" s="16" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="37.5">
       <c r="A355" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B355" s="12">
         <v>43899</v>
@@ -10763,56 +10763,56 @@
         <v>342</v>
       </c>
       <c r="D355" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E355" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="E355" s="4" t="s">
+      <c r="F355" s="16" t="s">
         <v>805</v>
-      </c>
-      <c r="F355" s="16" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="75">
       <c r="A356" s="17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B356" s="12">
         <v>43899</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D356" s="5"/>
       <c r="E356" s="4" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F356" s="16" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="37.5">
       <c r="A357" s="17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B357" s="12">
         <v>43899</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E357" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F357" s="16" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="18.75">
       <c r="A358" s="17" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B358" s="12">
         <v>43899</v>
@@ -10822,13 +10822,13 @@
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F358" s="5"/>
     </row>
     <row r="359" spans="1:6" ht="56.25">
       <c r="A359" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B359" s="12">
         <v>43899</v>
@@ -10840,15 +10840,15 @@
         <v>205</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F359" s="16" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="75">
       <c r="A360" s="17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B360" s="12">
         <v>43899</v>
@@ -10860,15 +10860,15 @@
         <v>56</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F360" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="37.5">
       <c r="A361" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B361" s="12">
         <v>43899</v>
@@ -10880,7 +10880,7 @@
         <v>192</v>
       </c>
       <c r="E361" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>264</v>
@@ -10888,7 +10888,7 @@
     </row>
     <row r="362" spans="1:6" ht="37.5">
       <c r="A362" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B362" s="12">
         <v>43899</v>
@@ -10900,7 +10900,7 @@
         <v>38</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>266</v>
@@ -10908,7 +10908,7 @@
     </row>
     <row r="363" spans="1:6" ht="18.75">
       <c r="A363" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B363" s="12">
         <v>43899</v>
@@ -10920,15 +10920,15 @@
         <v>491</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="18.75">
       <c r="A364" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B364" s="12">
         <v>43899</v>
@@ -10940,15 +10940,15 @@
         <v>428</v>
       </c>
       <c r="E364" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="18.75">
       <c r="A365" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B365" s="12">
         <v>43899</v>
@@ -10960,15 +10960,15 @@
         <v>547</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="18.75">
       <c r="A366" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B366" s="12">
         <v>43899</v>
@@ -10977,18 +10977,18 @@
         <v>200</v>
       </c>
       <c r="D366" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="E366" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="E366" s="4" t="s">
-        <v>824</v>
-      </c>
       <c r="F366" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="56.25">
       <c r="A367" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B367" s="12">
         <v>43899</v>
@@ -11000,15 +11000,15 @@
         <v>561</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F367" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="56.25">
       <c r="A368" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B368" s="12">
         <v>43899</v>
@@ -11017,18 +11017,18 @@
         <v>560</v>
       </c>
       <c r="D368" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="E368" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F368" s="16" t="s">
         <v>821</v>
-      </c>
-      <c r="E368" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F368" s="16" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="75">
       <c r="A369" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B369" s="12">
         <v>43899</v>
@@ -11037,42 +11037,42 @@
         <v>573</v>
       </c>
       <c r="D369" s="5" t="s">
-        <v>574</v>
+        <v>1054</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F369" s="16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="370" spans="1:6">
-      <c r="A370" s="18" t="s">
-        <v>838</v>
-      </c>
-      <c r="B370" s="19">
+      <c r="A370" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="B370" s="20">
         <v>43899</v>
       </c>
-      <c r="C370" s="18" t="s">
+      <c r="C370" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="D370" s="18" t="s">
+      <c r="D370" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="E370" s="18" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F370" s="20" t="s">
-        <v>837</v>
+      <c r="E370" s="19" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F370" s="18" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="371" spans="1:6">
-      <c r="A371" s="18"/>
-      <c r="B371" s="19"/>
-      <c r="C371" s="18"/>
-      <c r="D371" s="18"/>
-      <c r="E371" s="18"/>
-      <c r="F371" s="20"/>
+      <c r="A371" s="19"/>
+      <c r="B371" s="20"/>
+      <c r="C371" s="19"/>
+      <c r="D371" s="19"/>
+      <c r="E371" s="19"/>
+      <c r="F371" s="18"/>
     </row>
   </sheetData>
   <sortState ref="A361:F369">
